--- a/1 NHI impact/output/sfig_3_pta_overall.xlsx
+++ b/1 NHI impact/output/sfig_3_pta_overall.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
